--- a/BD2_teq.xlsx
+++ b/BD2_teq.xlsx
@@ -28,7 +28,7 @@
     <t>T-eq</t>
   </si>
   <si>
-    <t>R$ 4,37</t>
+    <t>R$ 3,41</t>
   </si>
 </sst>
 </file>
